--- a/data/lista_geral_2025_01_02.xlsx
+++ b/data/lista_geral_2025_01_02.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="F2" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F3" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="F4" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="F5" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="F6" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="F7" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="F8" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="F9" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="F10" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="F11" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F12" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="F13" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="F14" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="F15" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="F16" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="F17" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="F18" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="F19" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="F20" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="F21" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="F22" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="F23" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="F24" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="F25" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="F26" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F27" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="F28" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="F29" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="F30" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="F31" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="F32" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="F33" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="F34" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="N34">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="F35" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="F36" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="F37" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="F38" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="F39" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="F40" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="F41" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="F42" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="F43" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="F44" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="F45" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="F46" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="F47" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="F48" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="F49" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="F50" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="F51" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="F52" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="F53" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="F54" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="F55" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="F56" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="F57" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="F58" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="F59" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="N59">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60">
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="F60" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="N60">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="F61" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="F62" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="F63" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="F64" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="F65" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="F66" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         </is>
       </c>
       <c r="F67" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="F68" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="F69" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="F70" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="F71" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="F72" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="F73" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="F74" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="F75" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="F76" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="F77" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="F78" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="F79" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         </is>
       </c>
       <c r="F80" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="F81" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="F82" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="F83" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="F84" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         </is>
       </c>
       <c r="F85" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="F86" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="F87" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="F88" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="F89" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="F90" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="F91" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="F92" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="F93" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="F94" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="F95" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="F96" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="F97" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="F98" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F99" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         </is>
       </c>
       <c r="F100" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="F101" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="F102" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         </is>
       </c>
       <c r="F103" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="F104" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="F105" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         </is>
       </c>
       <c r="F106" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="F107" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="F108" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="F109" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="F110" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         </is>
       </c>
       <c r="F111" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         </is>
       </c>
       <c r="F112" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         </is>
       </c>
       <c r="F113" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="F114" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         </is>
       </c>
       <c r="N114">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="F115" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="F116" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="F117" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         </is>
       </c>
       <c r="F118" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="F119" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         </is>
       </c>
       <c r="F120" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="F121" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         </is>
       </c>
       <c r="F122" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         </is>
       </c>
       <c r="F123" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="F124" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         </is>
       </c>
       <c r="F125" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="F126" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         </is>
       </c>
       <c r="N126">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127">
@@ -8208,7 +8208,7 @@
         </is>
       </c>
       <c r="F127" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="N127">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128">
@@ -8270,7 +8270,7 @@
         </is>
       </c>
       <c r="F128" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="F129" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         </is>
       </c>
       <c r="F130" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="F131" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         </is>
       </c>
       <c r="F132" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         </is>
       </c>
       <c r="F133" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="F134" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="F135" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         </is>
       </c>
       <c r="F136" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="F137" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         </is>
       </c>
       <c r="F138" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="F139" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         </is>
       </c>
       <c r="F140" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="F141" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         </is>
       </c>
       <c r="F142" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         </is>
       </c>
       <c r="F143" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="F144" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="F145" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         </is>
       </c>
       <c r="F146" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="N146">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147">
@@ -9448,7 +9448,7 @@
         </is>
       </c>
       <c r="F147" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         </is>
       </c>
       <c r="N147">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148">
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="F148" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="F149" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="F150" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="F151" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         </is>
       </c>
       <c r="F152" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="F153" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="F154" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="F155" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         </is>
       </c>
       <c r="F156" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         </is>
       </c>
       <c r="F157" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="F158" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="F159" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         </is>
       </c>
       <c r="F160" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         </is>
       </c>
       <c r="F161" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         </is>
       </c>
       <c r="F162" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="F163" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="F164" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         </is>
       </c>
       <c r="F165" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="F166" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         </is>
       </c>
       <c r="F167" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         </is>
       </c>
       <c r="F168" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="F169" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         </is>
       </c>
       <c r="F170" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         </is>
       </c>
       <c r="F171" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         </is>
       </c>
       <c r="F172" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         </is>
       </c>
       <c r="F173" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         </is>
       </c>
       <c r="F174" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         </is>
       </c>
       <c r="F175" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="F176" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="N176">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177">
@@ -11308,7 +11308,7 @@
         </is>
       </c>
       <c r="F177" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         </is>
       </c>
       <c r="F178" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         </is>
       </c>
       <c r="F179" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         </is>
       </c>
       <c r="F180" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         </is>
       </c>
       <c r="F181" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         </is>
       </c>
       <c r="F182" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         </is>
       </c>
       <c r="F183" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         </is>
       </c>
       <c r="F184" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         </is>
       </c>
       <c r="F185" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         </is>
       </c>
       <c r="F186" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         </is>
       </c>
       <c r="F187" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         </is>
       </c>
       <c r="N187">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188">
@@ -11990,7 +11990,7 @@
         </is>
       </c>
       <c r="F188" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         </is>
       </c>
       <c r="N188">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="F189" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         </is>
       </c>
       <c r="F190" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         </is>
       </c>
       <c r="F191" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         </is>
       </c>
       <c r="F192" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         </is>
       </c>
       <c r="F193" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="F194" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="F195" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="F196" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         </is>
       </c>
       <c r="F197" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="F198" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="F199" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="F200" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="F201" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="F202" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="F203" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="F204" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         </is>
       </c>
       <c r="F205" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="F206" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         </is>
       </c>
       <c r="F207" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         </is>
       </c>
       <c r="F208" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="F209" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         </is>
       </c>
       <c r="F210" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         </is>
       </c>
       <c r="F211" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         </is>
       </c>
       <c r="F212" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         </is>
       </c>
       <c r="F213" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="F214" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="F215" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         </is>
       </c>
       <c r="F216" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         </is>
       </c>
       <c r="F217" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         </is>
       </c>
       <c r="F218" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="F219" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         </is>
       </c>
       <c r="N219">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="220">
@@ -13974,7 +13974,7 @@
         </is>
       </c>
       <c r="F220" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         </is>
       </c>
       <c r="F221" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         </is>
       </c>
       <c r="F222" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         </is>
       </c>
       <c r="F223" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="F224" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         </is>
       </c>
       <c r="F225" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="F226" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         </is>
       </c>
       <c r="F227" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         </is>
       </c>
       <c r="F228" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="F229" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         </is>
       </c>
       <c r="F230" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         </is>
       </c>
       <c r="F231" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         </is>
       </c>
       <c r="F232" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         </is>
       </c>
       <c r="F233" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="F234" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         </is>
       </c>
       <c r="F235" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         </is>
       </c>
       <c r="N235">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="236">
@@ -14966,7 +14966,7 @@
         </is>
       </c>
       <c r="F236" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="N236">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237">
@@ -15028,7 +15028,7 @@
         </is>
       </c>
       <c r="F237" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         </is>
       </c>
       <c r="N237">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238">
@@ -15090,7 +15090,7 @@
         </is>
       </c>
       <c r="F238" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         </is>
       </c>
       <c r="N238">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239">
@@ -15152,7 +15152,7 @@
         </is>
       </c>
       <c r="F239" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         </is>
       </c>
       <c r="N239">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240">
@@ -15214,7 +15214,7 @@
         </is>
       </c>
       <c r="F240" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         </is>
       </c>
       <c r="F241" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -15338,7 +15338,7 @@
         </is>
       </c>
       <c r="F242" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         </is>
       </c>
       <c r="F243" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         </is>
       </c>
       <c r="F244" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         </is>
       </c>
       <c r="F245" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="F246" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         </is>
       </c>
       <c r="F247" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         </is>
       </c>
       <c r="F248" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         </is>
       </c>
       <c r="F249" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         </is>
       </c>
       <c r="F250" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="F251" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         </is>
       </c>
       <c r="F252" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         </is>
       </c>
       <c r="F253" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         </is>
       </c>
       <c r="F254" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         </is>
       </c>
       <c r="F255" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         </is>
       </c>
       <c r="F256" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         </is>
       </c>
       <c r="F257" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         </is>
       </c>
       <c r="F258" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         </is>
       </c>
       <c r="F259" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         </is>
       </c>
       <c r="F260" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="F261" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         </is>
       </c>
       <c r="F262" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         </is>
       </c>
       <c r="F263" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         </is>
       </c>
       <c r="F264" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="F265" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         </is>
       </c>
       <c r="F266" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         </is>
       </c>
       <c r="F267" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         </is>
       </c>
       <c r="F268" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         </is>
       </c>
       <c r="F269" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         </is>
       </c>
       <c r="F270" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         </is>
       </c>
       <c r="F271" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         </is>
       </c>
       <c r="F272" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         </is>
       </c>
       <c r="F273" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         </is>
       </c>
       <c r="F274" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         </is>
       </c>
       <c r="F275" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="F276" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         </is>
       </c>
       <c r="F277" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         </is>
       </c>
       <c r="F278" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="F279" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         </is>
       </c>
       <c r="F280" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         </is>
       </c>
       <c r="F281" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         </is>
       </c>
       <c r="F282" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         </is>
       </c>
       <c r="N282">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="283">
@@ -17880,7 +17880,7 @@
         </is>
       </c>
       <c r="F283" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         </is>
       </c>
       <c r="F284" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         </is>
       </c>
       <c r="F285" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="F286" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         </is>
       </c>
       <c r="F287" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="F288" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="F289" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         </is>
       </c>
       <c r="F290" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         </is>
       </c>
       <c r="F291" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         </is>
       </c>
       <c r="F292" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         </is>
       </c>
       <c r="F293" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         </is>
       </c>
       <c r="F294" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         </is>
       </c>
       <c r="F295" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         </is>
       </c>
       <c r="F296" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         </is>
       </c>
       <c r="F297" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         </is>
       </c>
       <c r="F298" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         </is>
       </c>
       <c r="F299" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         </is>
       </c>
       <c r="F300" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="F301" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         </is>
       </c>
       <c r="F302" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         </is>
       </c>
       <c r="F303" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         </is>
       </c>
       <c r="F304" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         </is>
       </c>
       <c r="F305" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="F306" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         </is>
       </c>
       <c r="F307" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         </is>
       </c>
       <c r="F308" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         </is>
       </c>
       <c r="N308">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="309">
@@ -19492,7 +19492,7 @@
         </is>
       </c>
       <c r="F309" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         </is>
       </c>
       <c r="N309">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="310">
@@ -19554,7 +19554,7 @@
         </is>
       </c>
       <c r="F310" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         </is>
       </c>
       <c r="F311" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         </is>
       </c>
       <c r="F312" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         </is>
       </c>
       <c r="F313" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="F314" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         </is>
       </c>
       <c r="F315" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         </is>
       </c>
       <c r="F316" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         </is>
       </c>
       <c r="F317" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         </is>
       </c>
       <c r="F318" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         </is>
       </c>
       <c r="F319" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         </is>
       </c>
       <c r="F320" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         </is>
       </c>
       <c r="F321" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         </is>
       </c>
       <c r="F322" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         </is>
       </c>
       <c r="F323" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="F324" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         </is>
       </c>
       <c r="N324">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325">
@@ -20484,7 +20484,7 @@
         </is>
       </c>
       <c r="F325" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         </is>
       </c>
       <c r="N325">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="326">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="F326" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         </is>
       </c>
       <c r="F327" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         </is>
       </c>
       <c r="F328" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         </is>
       </c>
       <c r="F329" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         </is>
       </c>
       <c r="F330" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         </is>
       </c>
       <c r="F331" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         </is>
       </c>
       <c r="F332" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="F333" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         </is>
       </c>
       <c r="F334" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         </is>
       </c>
       <c r="F335" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         </is>
       </c>
       <c r="F336" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         </is>
       </c>
       <c r="F337" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         </is>
       </c>
       <c r="F338" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="F339" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         </is>
       </c>
       <c r="F340" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="N340">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="341">
@@ -21476,7 +21476,7 @@
         </is>
       </c>
       <c r="F341" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         </is>
       </c>
       <c r="F342" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         </is>
       </c>
       <c r="F343" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         </is>
       </c>
       <c r="F344" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="F345" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         </is>
       </c>
       <c r="F346" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         </is>
       </c>
       <c r="F347" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         </is>
       </c>
       <c r="F348" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         </is>
       </c>
       <c r="F349" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         </is>
       </c>
       <c r="F350" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="F351" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         </is>
       </c>
       <c r="F352" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         </is>
       </c>
       <c r="F353" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         </is>
       </c>
       <c r="F354" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         </is>
       </c>
       <c r="F355" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         </is>
       </c>
       <c r="F356" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         </is>
       </c>
       <c r="F357" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         </is>
       </c>
       <c r="F358" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         </is>
       </c>
       <c r="N358">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="359">
@@ -22592,7 +22592,7 @@
         </is>
       </c>
       <c r="F359" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         </is>
       </c>
       <c r="N359">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="360">
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="F360" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         </is>
       </c>
       <c r="F361" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
         </is>
       </c>
       <c r="F362" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         </is>
       </c>
       <c r="F363" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="F364" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -22964,7 +22964,7 @@
         </is>
       </c>
       <c r="F365" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="F366" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         </is>
       </c>
       <c r="F367" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         </is>
       </c>
       <c r="F368" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         </is>
       </c>
       <c r="F369" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         </is>
       </c>
       <c r="F370" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="F371" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         </is>
       </c>
       <c r="F372" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         </is>
       </c>
       <c r="F373" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         </is>
       </c>
       <c r="F374" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         </is>
       </c>
       <c r="F375" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="F376" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         </is>
       </c>
       <c r="F377" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         </is>
       </c>
       <c r="F378" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         </is>
       </c>
       <c r="F379" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         </is>
       </c>
       <c r="F380" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         </is>
       </c>
       <c r="F381" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         </is>
       </c>
       <c r="F382" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         </is>
       </c>
       <c r="F383" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         </is>
       </c>
       <c r="F384" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         </is>
       </c>
       <c r="F385" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         </is>
       </c>
       <c r="F386" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         </is>
       </c>
       <c r="F387" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         </is>
       </c>
       <c r="F388" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         </is>
       </c>
       <c r="F389" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         </is>
       </c>
       <c r="F390" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         </is>
       </c>
       <c r="F391" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         </is>
       </c>
       <c r="F392" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         </is>
       </c>
       <c r="F393" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         </is>
       </c>
       <c r="F394" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         </is>
       </c>
       <c r="F395" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         </is>
       </c>
       <c r="F396" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -24948,7 +24948,7 @@
         </is>
       </c>
       <c r="F397" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         </is>
       </c>
       <c r="F398" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="F399" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         </is>
       </c>
       <c r="F400" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="F401" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         </is>
       </c>
       <c r="F402" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         </is>
       </c>
       <c r="F403" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         </is>
       </c>
       <c r="F404" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         </is>
       </c>
       <c r="F405" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="F406" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         </is>
       </c>
       <c r="F407" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         </is>
       </c>
       <c r="N407">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="408">
@@ -25630,7 +25630,7 @@
         </is>
       </c>
       <c r="F408" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         </is>
       </c>
       <c r="F409" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         </is>
       </c>
       <c r="F410" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         </is>
       </c>
       <c r="F411" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         </is>
       </c>
       <c r="F412" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         </is>
       </c>
       <c r="F413" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="F414" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         </is>
       </c>
       <c r="F415" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         </is>
       </c>
       <c r="F416" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         </is>
       </c>
       <c r="F417" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         </is>
       </c>
       <c r="F418" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -26312,7 +26312,7 @@
         </is>
       </c>
       <c r="F419" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         </is>
       </c>
       <c r="F420" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         </is>
       </c>
       <c r="F421" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         </is>
       </c>
       <c r="F422" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         </is>
       </c>
       <c r="F423" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         </is>
       </c>
       <c r="F424" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         </is>
       </c>
       <c r="F425" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="F426" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         </is>
       </c>
       <c r="F427" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         </is>
       </c>
       <c r="F428" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         </is>
       </c>
       <c r="F429" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         </is>
       </c>
       <c r="F430" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         </is>
       </c>
       <c r="F431" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         </is>
       </c>
       <c r="F432" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         </is>
       </c>
       <c r="F433" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         </is>
       </c>
       <c r="F434" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         </is>
       </c>
       <c r="F435" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         </is>
       </c>
       <c r="F436" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         </is>
       </c>
       <c r="N436">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="437">
@@ -27428,7 +27428,7 @@
         </is>
       </c>
       <c r="F437" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         </is>
       </c>
       <c r="N437">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="438">
@@ -27490,7 +27490,7 @@
         </is>
       </c>
       <c r="F438" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         </is>
       </c>
       <c r="F439" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         </is>
       </c>
       <c r="F440" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         </is>
       </c>
       <c r="F441" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         </is>
       </c>
       <c r="F442" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         </is>
       </c>
       <c r="F443" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         </is>
       </c>
       <c r="F444" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         </is>
       </c>
       <c r="F445" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="F446" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         </is>
       </c>
       <c r="F447" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         </is>
       </c>
       <c r="F448" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         </is>
       </c>
       <c r="F449" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         </is>
       </c>
       <c r="F450" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -28296,7 +28296,7 @@
         </is>
       </c>
       <c r="F451" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         </is>
       </c>
       <c r="F452" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         </is>
       </c>
       <c r="F453" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="F454" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -28544,7 +28544,7 @@
         </is>
       </c>
       <c r="F455" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         </is>
       </c>
       <c r="F456" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         </is>
       </c>
       <c r="N456">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="457">
@@ -28668,7 +28668,7 @@
         </is>
       </c>
       <c r="F457" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -28730,7 +28730,7 @@
         </is>
       </c>
       <c r="F458" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         </is>
       </c>
       <c r="F459" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         </is>
       </c>
       <c r="F460" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         </is>
       </c>
       <c r="F461" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -28978,7 +28978,7 @@
         </is>
       </c>
       <c r="F462" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -29040,7 +29040,7 @@
         </is>
       </c>
       <c r="F463" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         </is>
       </c>
       <c r="F464" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="F465" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         </is>
       </c>
       <c r="F466" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         </is>
       </c>
       <c r="F467" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         </is>
       </c>
       <c r="F468" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         </is>
       </c>
       <c r="F469" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         </is>
       </c>
       <c r="F470" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         </is>
       </c>
       <c r="F471" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         </is>
       </c>
       <c r="F472" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         </is>
       </c>
       <c r="F473" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         </is>
       </c>
       <c r="F474" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         </is>
       </c>
       <c r="F475" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         </is>
       </c>
       <c r="F476" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         </is>
       </c>
       <c r="F477" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         </is>
       </c>
       <c r="F478" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         </is>
       </c>
       <c r="F479" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         </is>
       </c>
       <c r="F480" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         </is>
       </c>
       <c r="F481" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         </is>
       </c>
       <c r="F482" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         </is>
       </c>
       <c r="F483" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -30342,7 +30342,7 @@
         </is>
       </c>
       <c r="F484" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         </is>
       </c>
       <c r="F485" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="F486" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         </is>
       </c>
       <c r="F487" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -30590,7 +30590,7 @@
         </is>
       </c>
       <c r="F488" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         </is>
       </c>
       <c r="F489" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
@@ -30714,7 +30714,7 @@
         </is>
       </c>
       <c r="F490" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         </is>
       </c>
       <c r="F491" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         </is>
       </c>
       <c r="F492" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         </is>
       </c>
       <c r="F493" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         </is>
       </c>
       <c r="F494" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         </is>
       </c>
       <c r="F495" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         </is>
       </c>
       <c r="F496" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         </is>
       </c>
       <c r="F497" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         </is>
       </c>
       <c r="F498" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         </is>
       </c>
       <c r="F499" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         </is>
       </c>
       <c r="F500" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         </is>
       </c>
       <c r="F501" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         </is>
       </c>
       <c r="F502" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G502" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         </is>
       </c>
       <c r="F503" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G503" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         </is>
       </c>
       <c r="F504" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G504" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="F505" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G505" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         </is>
       </c>
       <c r="F506" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G506" t="inlineStr">
         <is>
@@ -31768,7 +31768,7 @@
         </is>
       </c>
       <c r="F507" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G507" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         </is>
       </c>
       <c r="F508" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G508" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         </is>
       </c>
       <c r="F509" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G509" t="inlineStr">
         <is>
@@ -31954,7 +31954,7 @@
         </is>
       </c>
       <c r="F510" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G510" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         </is>
       </c>
       <c r="F511" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G511" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         </is>
       </c>
       <c r="F512" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G512" t="inlineStr">
         <is>
@@ -32140,7 +32140,7 @@
         </is>
       </c>
       <c r="F513" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G513" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         </is>
       </c>
       <c r="N513">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="514">
@@ -32202,7 +32202,7 @@
         </is>
       </c>
       <c r="F514" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G514" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         </is>
       </c>
       <c r="F515" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G515" t="inlineStr">
         <is>
@@ -32326,7 +32326,7 @@
         </is>
       </c>
       <c r="F516" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G516" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
         </is>
       </c>
       <c r="F517" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G517" t="inlineStr">
         <is>
@@ -32450,7 +32450,7 @@
         </is>
       </c>
       <c r="F518" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G518" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         </is>
       </c>
       <c r="F519" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G519" t="inlineStr">
         <is>
@@ -32574,7 +32574,7 @@
         </is>
       </c>
       <c r="F520" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G520" t="inlineStr">
         <is>
@@ -32636,7 +32636,7 @@
         </is>
       </c>
       <c r="F521" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G521" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         </is>
       </c>
       <c r="F522" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G522" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         </is>
       </c>
       <c r="F523" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G523" t="inlineStr">
         <is>
@@ -32822,7 +32822,7 @@
         </is>
       </c>
       <c r="F524" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G524" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         </is>
       </c>
       <c r="F525" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G525" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="F526" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G526" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="F527" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G527" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         </is>
       </c>
       <c r="F528" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G528" t="inlineStr">
         <is>
@@ -33132,7 +33132,7 @@
         </is>
       </c>
       <c r="F529" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G529" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         </is>
       </c>
       <c r="F530" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G530" t="inlineStr">
         <is>
@@ -33256,7 +33256,7 @@
         </is>
       </c>
       <c r="F531" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G531" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         </is>
       </c>
       <c r="F532" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G532" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         </is>
       </c>
       <c r="F533" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G533" t="inlineStr">
         <is>
@@ -33442,7 +33442,7 @@
         </is>
       </c>
       <c r="F534" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G534" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         </is>
       </c>
       <c r="F535" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G535" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         </is>
       </c>
       <c r="F536" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G536" t="inlineStr">
         <is>
@@ -33628,7 +33628,7 @@
         </is>
       </c>
       <c r="F537" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G537" t="inlineStr">
         <is>
@@ -33690,7 +33690,7 @@
         </is>
       </c>
       <c r="F538" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G538" t="inlineStr">
         <is>
@@ -33752,7 +33752,7 @@
         </is>
       </c>
       <c r="F539" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G539" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         </is>
       </c>
       <c r="F540" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G540" t="inlineStr">
         <is>
@@ -33876,7 +33876,7 @@
         </is>
       </c>
       <c r="F541" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G541" t="inlineStr">
         <is>
@@ -33938,7 +33938,7 @@
         </is>
       </c>
       <c r="F542" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G542" t="inlineStr">
         <is>
@@ -34000,7 +34000,7 @@
         </is>
       </c>
       <c r="F543" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G543" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         </is>
       </c>
       <c r="F544" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G544" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         </is>
       </c>
       <c r="F545" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G545" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         </is>
       </c>
       <c r="F546" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G546" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         </is>
       </c>
       <c r="F547" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G547" t="inlineStr">
         <is>
@@ -34310,7 +34310,7 @@
         </is>
       </c>
       <c r="F548" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G548" t="inlineStr">
         <is>
@@ -34372,7 +34372,7 @@
         </is>
       </c>
       <c r="F549" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G549" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         </is>
       </c>
       <c r="F550" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G550" t="inlineStr">
         <is>
@@ -34496,7 +34496,7 @@
         </is>
       </c>
       <c r="F551" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G551" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         </is>
       </c>
       <c r="F552" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G552" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         </is>
       </c>
       <c r="F553" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G553" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         </is>
       </c>
       <c r="F554" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G554" t="inlineStr">
         <is>
@@ -34744,7 +34744,7 @@
         </is>
       </c>
       <c r="F555" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G555" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         </is>
       </c>
       <c r="F556" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G556" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         </is>
       </c>
       <c r="N556">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="557">
@@ -34868,7 +34868,7 @@
         </is>
       </c>
       <c r="F557" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G557" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         </is>
       </c>
       <c r="N557">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="558">
@@ -34930,7 +34930,7 @@
         </is>
       </c>
       <c r="F558" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G558" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         </is>
       </c>
       <c r="N558">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="559">
@@ -34992,7 +34992,7 @@
         </is>
       </c>
       <c r="F559" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G559" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         </is>
       </c>
       <c r="F560" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G560" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         </is>
       </c>
       <c r="F561" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G561" t="inlineStr">
         <is>
@@ -35178,7 +35178,7 @@
         </is>
       </c>
       <c r="F562" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G562" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         </is>
       </c>
       <c r="F563" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G563" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         </is>
       </c>
       <c r="F564" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G564" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         </is>
       </c>
       <c r="F565" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G565" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="F566" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G566" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         </is>
       </c>
       <c r="F567" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G567" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         </is>
       </c>
       <c r="F568" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G568" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         </is>
       </c>
       <c r="F569" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G569" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         </is>
       </c>
       <c r="F570" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G570" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         </is>
       </c>
       <c r="F571" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G571" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         </is>
       </c>
       <c r="F572" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G572" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         </is>
       </c>
       <c r="F573" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G573" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         </is>
       </c>
       <c r="N573">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="574">
@@ -35922,7 +35922,7 @@
         </is>
       </c>
       <c r="F574" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G574" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         </is>
       </c>
       <c r="F575" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G575" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         </is>
       </c>
       <c r="F576" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G576" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         </is>
       </c>
       <c r="F577" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G577" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         </is>
       </c>
       <c r="F578" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G578" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         </is>
       </c>
       <c r="F579" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G579" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         </is>
       </c>
       <c r="F580" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G580" t="inlineStr">
         <is>
@@ -36356,7 +36356,7 @@
         </is>
       </c>
       <c r="F581" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G581" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         </is>
       </c>
       <c r="F582" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G582" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         </is>
       </c>
       <c r="F583" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G583" t="inlineStr">
         <is>
@@ -36542,7 +36542,7 @@
         </is>
       </c>
       <c r="F584" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G584" t="inlineStr">
         <is>
@@ -36604,7 +36604,7 @@
         </is>
       </c>
       <c r="F585" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G585" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         </is>
       </c>
       <c r="F586" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G586" t="inlineStr">
         <is>
@@ -36728,7 +36728,7 @@
         </is>
       </c>
       <c r="F587" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G587" t="inlineStr">
         <is>
@@ -36790,7 +36790,7 @@
         </is>
       </c>
       <c r="F588" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G588" t="inlineStr">
         <is>
@@ -36828,7 +36828,7 @@
         </is>
       </c>
       <c r="N588">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="589">
@@ -36852,7 +36852,7 @@
         </is>
       </c>
       <c r="F589" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G589" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         </is>
       </c>
       <c r="N589">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="590">
@@ -36914,7 +36914,7 @@
         </is>
       </c>
       <c r="F590" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G590" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         </is>
       </c>
       <c r="F591" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G591" t="inlineStr">
         <is>
@@ -37038,7 +37038,7 @@
         </is>
       </c>
       <c r="F592" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G592" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         </is>
       </c>
       <c r="F593" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G593" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         </is>
       </c>
       <c r="F594" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G594" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         </is>
       </c>
       <c r="F595" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G595" t="inlineStr">
         <is>
@@ -37286,7 +37286,7 @@
         </is>
       </c>
       <c r="F596" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G596" t="inlineStr">
         <is>
@@ -37348,7 +37348,7 @@
         </is>
       </c>
       <c r="F597" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G597" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         </is>
       </c>
       <c r="F598" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G598" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         </is>
       </c>
       <c r="F599" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G599" t="inlineStr">
         <is>
@@ -37534,7 +37534,7 @@
         </is>
       </c>
       <c r="F600" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G600" t="inlineStr">
         <is>
@@ -37596,7 +37596,7 @@
         </is>
       </c>
       <c r="F601" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G601" t="inlineStr">
         <is>
@@ -37658,7 +37658,7 @@
         </is>
       </c>
       <c r="F602" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G602" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         </is>
       </c>
       <c r="F603" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G603" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         </is>
       </c>
       <c r="F604" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G604" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         </is>
       </c>
       <c r="F605" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G605" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="F606" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G606" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         </is>
       </c>
       <c r="F607" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G607" t="inlineStr">
         <is>
@@ -38030,7 +38030,7 @@
         </is>
       </c>
       <c r="F608" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G608" t="inlineStr">
         <is>
@@ -38092,7 +38092,7 @@
         </is>
       </c>
       <c r="F609" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G609" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         </is>
       </c>
       <c r="F610" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G610" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         </is>
       </c>
       <c r="F611" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G611" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         </is>
       </c>
       <c r="F612" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G612" t="inlineStr">
         <is>
@@ -38340,7 +38340,7 @@
         </is>
       </c>
       <c r="F613" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G613" t="inlineStr">
         <is>
@@ -38402,7 +38402,7 @@
         </is>
       </c>
       <c r="F614" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G614" t="inlineStr">
         <is>
@@ -38464,7 +38464,7 @@
         </is>
       </c>
       <c r="F615" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G615" t="inlineStr">
         <is>
@@ -38526,7 +38526,7 @@
         </is>
       </c>
       <c r="F616" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G616" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         </is>
       </c>
       <c r="F617" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G617" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         </is>
       </c>
       <c r="F618" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G618" t="inlineStr">
         <is>
@@ -38712,7 +38712,7 @@
         </is>
       </c>
       <c r="F619" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G619" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         </is>
       </c>
       <c r="F620" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G620" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         </is>
       </c>
       <c r="F621" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G621" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         </is>
       </c>
       <c r="F622" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G622" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         </is>
       </c>
       <c r="F623" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G623" t="inlineStr">
         <is>
@@ -39022,7 +39022,7 @@
         </is>
       </c>
       <c r="F624" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G624" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         </is>
       </c>
       <c r="F625" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G625" t="inlineStr">
         <is>
@@ -39146,7 +39146,7 @@
         </is>
       </c>
       <c r="F626" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G626" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         </is>
       </c>
       <c r="F627" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G627" t="inlineStr">
         <is>
@@ -39270,7 +39270,7 @@
         </is>
       </c>
       <c r="F628" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G628" t="inlineStr">
         <is>
